--- a/lab_4/exceeel.xlsx
+++ b/lab_4/exceeel.xlsx
@@ -9,13 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14235" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14235" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Colonia" sheetId="3" r:id="rId1"/>
     <sheet name="Skanninge-n" sheetId="5" r:id="rId2"/>
     <sheet name="Atvid-s" sheetId="6" r:id="rId3"/>
-    <sheet name="Vadstena" sheetId="1" state="hidden" r:id="rId4"/>
+    <sheet name="Vadstena" sheetId="1" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -369,7 +369,7 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -405,13 +405,28 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="6" xfId="6" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="7" xfId="6" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="5" fillId="5" borderId="1" xfId="5" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="6" fillId="6" borderId="2" xfId="6" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="6" fillId="6" borderId="2" xfId="6" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="8" xfId="6" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="6" fillId="6" borderId="4" xfId="6" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="1" fontId="6" fillId="6" borderId="5" xfId="6" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="6" borderId="6" xfId="6" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="6" borderId="7" xfId="6" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="6" borderId="8" xfId="6" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Bra" xfId="2" builtinId="26"/>
@@ -702,7 +717,7 @@
   <dimension ref="B5:H26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -744,22 +759,22 @@
       <c r="B8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="20">
         <v>158.80600000000001</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="20">
         <v>88.239000000000004</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="20">
         <v>72.802000000000007</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="20">
         <v>56.811</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="20">
         <v>51.661999999999999</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H8" s="20">
         <v>62.847999999999999</v>
       </c>
     </row>
@@ -767,27 +782,27 @@
       <c r="B9" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="20">
         <f>C8+200</f>
         <v>358.80600000000004</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="20">
         <f>D8+200</f>
         <v>288.23900000000003</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="20">
         <f>E8+200</f>
         <v>272.80200000000002</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="20">
         <f>F8+200</f>
         <v>256.81099999999998</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G9" s="20">
         <f>G8+200</f>
         <v>251.66200000000001</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H9" s="20">
         <f>H8+200</f>
         <v>262.84800000000001</v>
       </c>
@@ -796,41 +811,41 @@
       <c r="B10" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="12">
+      <c r="C10" s="21">
         <f>SUM(C8:C9)</f>
         <v>517.61200000000008</v>
       </c>
-      <c r="D10" s="13">
+      <c r="D10" s="22">
         <f>SUM(D9:E9)+MAX(D8:E8)</f>
         <v>649.28000000000009</v>
       </c>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13">
+      <c r="E10" s="22"/>
+      <c r="F10" s="22">
         <f>SUM(F9:H9)+MAX(F8:H8)</f>
         <v>834.16899999999987</v>
       </c>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="22"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B11" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="12">
+      <c r="C11" s="21">
         <f>SUM(C8:C9)+C8</f>
         <v>676.41800000000012</v>
       </c>
-      <c r="D11" s="13">
+      <c r="D11" s="22">
         <f>SUM(D9:E9)+2*MAX(D8:E8)</f>
         <v>737.51900000000001</v>
       </c>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13">
+      <c r="E11" s="22"/>
+      <c r="F11" s="22">
         <f>SUM(F9:H9)+2*MAX(F8:H8)</f>
         <v>897.01699999999994</v>
       </c>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="22"/>
     </row>
     <row r="13" spans="2:8" ht="21" x14ac:dyDescent="0.35">
       <c r="B13" s="1" t="s">
@@ -857,19 +872,19 @@
       <c r="B15" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="20">
         <v>89.59</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="20">
         <v>56.47</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E15" s="20">
         <v>52.33</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F15" s="20">
         <v>69.41</v>
       </c>
-      <c r="G15" s="4">
+      <c r="G15" s="20">
         <v>28.17</v>
       </c>
     </row>
@@ -877,23 +892,23 @@
       <c r="B16" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="20">
         <f>C15+200</f>
         <v>289.59000000000003</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16" s="20">
         <f>D15+200</f>
         <v>256.47000000000003</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E16" s="20">
         <f>E15+200</f>
         <v>252.32999999999998</v>
       </c>
-      <c r="F16" s="4">
+      <c r="F16" s="20">
         <f>F15+200</f>
         <v>269.40999999999997</v>
       </c>
-      <c r="G16" s="4">
+      <c r="G16" s="20">
         <f>G15+200</f>
         <v>228.17000000000002</v>
       </c>
@@ -902,33 +917,33 @@
       <c r="B17" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="16">
+      <c r="C17" s="23">
         <f>SUM(C16:D16)+MAX(C15:D15)</f>
         <v>635.65000000000009</v>
       </c>
-      <c r="D17" s="17"/>
-      <c r="E17" s="16">
+      <c r="D17" s="24"/>
+      <c r="E17" s="23">
         <f>SUM(E16:G16)+MAX(E15:G15)</f>
         <v>819.32</v>
       </c>
-      <c r="F17" s="18"/>
-      <c r="G17" s="17"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="24"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="16">
+      <c r="C18" s="23">
         <f>SUM(C16:D16)+2*MAX(C15:D15)</f>
         <v>725.24</v>
       </c>
-      <c r="D18" s="17"/>
-      <c r="E18" s="16">
+      <c r="D18" s="24"/>
+      <c r="E18" s="23">
         <f>SUM(E16:G16)+2*MAX(E15:G15)</f>
         <v>888.73</v>
       </c>
-      <c r="F18" s="18"/>
-      <c r="G18" s="17"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="24"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21" s="14" t="s">
@@ -1401,10 +1416,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B5:L26"/>
+  <dimension ref="B5:Q26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1416,7 +1431,7 @@
     <col min="7" max="7" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="2:12" ht="21" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:17" ht="21" x14ac:dyDescent="0.35">
       <c r="B5" s="1" t="s">
         <v>17</v>
       </c>
@@ -1431,7 +1446,7 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B7" s="2"/>
       <c r="C7" s="2">
         <v>1</v>
@@ -1452,244 +1467,276 @@
       <c r="K7" s="11"/>
       <c r="L7" s="11"/>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="20">
         <v>2312.4355989999999</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="20">
         <v>1166.3717915</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="20">
         <v>1161.6421115000001</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="20">
         <v>840.46990800000003</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="20">
         <v>707.59854050000001</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H8" s="20">
         <v>826.40387050000004</v>
       </c>
-      <c r="I8" s="4">
+      <c r="I8" s="20">
         <v>666.17832050000004</v>
       </c>
-      <c r="J8" s="4">
+      <c r="J8" s="20">
         <v>641.28256299999998</v>
       </c>
-      <c r="K8" s="4">
+      <c r="K8" s="20">
         <v>673.867392</v>
       </c>
-      <c r="L8" s="4">
+      <c r="L8" s="20">
         <v>440.241938</v>
       </c>
-    </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="N8" s="28">
+        <f>MAX(C8)</f>
+        <v>2312.4355989999999</v>
+      </c>
+      <c r="O8" s="28">
+        <f>MAX(D8:E8)</f>
+        <v>1166.3717915</v>
+      </c>
+      <c r="P8" s="28">
+        <f>MAX(F8:H8)</f>
+        <v>840.46990800000003</v>
+      </c>
+      <c r="Q8" s="28">
+        <f>MAX(I8:L8)</f>
+        <v>673.867392</v>
+      </c>
+    </row>
+    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="20">
         <f>C8</f>
         <v>2312.4355989999999</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="20">
         <v>1165.1859724999999</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="20">
         <v>1154.2352410000001</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="20">
         <v>804.85977149999997</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G9" s="20">
         <v>808.39938500000005</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H9" s="20">
         <v>784.35447350000004</v>
       </c>
-      <c r="I9" s="4">
+      <c r="I9" s="20">
         <v>609.19782350000003</v>
       </c>
-      <c r="J9" s="4">
+      <c r="J9" s="20">
         <v>622.10131950000005</v>
       </c>
-      <c r="K9" s="4">
+      <c r="K9" s="20">
         <v>592.41067199999998</v>
       </c>
-      <c r="L9" s="4">
+      <c r="L9" s="20">
         <v>623.86126149999996</v>
       </c>
-    </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="N9" s="28">
+        <f>MAX(C9)</f>
+        <v>2312.4355989999999</v>
+      </c>
+      <c r="O9" s="28">
+        <f>MAX(D9:E9)</f>
+        <v>1165.1859724999999</v>
+      </c>
+      <c r="P9" s="28">
+        <f>MAX(F9:H9)</f>
+        <v>808.39938500000005</v>
+      </c>
+      <c r="Q9" s="28">
+        <f>MAX(I9:L9)</f>
+        <v>623.86126149999996</v>
+      </c>
+    </row>
+    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="20">
         <f>C8+200</f>
         <v>2512.4355989999999</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="20">
         <f>D8+200</f>
         <v>1366.3717915</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="20">
         <f>E8+200</f>
         <v>1361.6421115000001</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="20">
         <f>F8+200</f>
         <v>1040.469908</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G10" s="20">
         <f>G8+200</f>
         <v>907.59854050000001</v>
       </c>
-      <c r="H10" s="4">
+      <c r="H10" s="20">
         <f>H8+200</f>
         <v>1026.4038705</v>
       </c>
-      <c r="I10" s="4">
+      <c r="I10" s="20">
         <f>I8+200</f>
         <v>866.17832050000004</v>
       </c>
-      <c r="J10" s="4">
+      <c r="J10" s="20">
         <f>J8+200</f>
         <v>841.28256299999998</v>
       </c>
-      <c r="K10" s="4">
+      <c r="K10" s="20">
         <f>K8+200</f>
         <v>873.867392</v>
       </c>
-      <c r="L10" s="4">
+      <c r="L10" s="20">
         <f>L8+200</f>
         <v>640.241938</v>
       </c>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B11" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="20">
         <f>C9+200</f>
         <v>2512.4355989999999</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="20">
         <f>D9+200</f>
         <v>1365.1859724999999</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="20">
         <f>E9+200</f>
         <v>1354.2352410000001</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="20">
         <f>F9+200</f>
         <v>1004.8597715</v>
       </c>
-      <c r="G11" s="4">
+      <c r="G11" s="20">
         <f>G9+200</f>
         <v>1008.3993850000001</v>
       </c>
-      <c r="H11" s="4">
+      <c r="H11" s="20">
         <f>H9+200</f>
         <v>984.35447350000004</v>
       </c>
-      <c r="I11" s="4">
+      <c r="I11" s="20">
         <f>I9+200</f>
         <v>809.19782350000003</v>
       </c>
-      <c r="J11" s="4">
+      <c r="J11" s="20">
         <f>J9+200</f>
         <v>822.10131950000005</v>
       </c>
-      <c r="K11" s="4">
+      <c r="K11" s="20">
         <f>K9+200</f>
         <v>792.41067199999998</v>
       </c>
-      <c r="L11" s="4">
+      <c r="L11" s="20">
         <f>L9+200</f>
         <v>823.86126149999996</v>
       </c>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="12">
+      <c r="C12" s="21">
         <f>SUM(C8+C10)</f>
         <v>4824.8711979999998</v>
       </c>
-      <c r="D12" s="16">
+      <c r="D12" s="23">
         <f>SUM(D10:E10)+MAX(D8:E8)</f>
         <v>3894.3856944999998</v>
       </c>
-      <c r="E12" s="17"/>
-      <c r="F12" s="16">
+      <c r="E12" s="24"/>
+      <c r="F12" s="23">
         <f>SUM(F10:H10)+MAX(F8:H8)</f>
         <v>3814.9422270000005</v>
       </c>
-      <c r="G12" s="18"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="19">
+      <c r="G12" s="25"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="26">
         <f>SUM(I10:L10)+MAX(I8:L8)</f>
         <v>3895.4376055000002</v>
       </c>
-      <c r="J12" s="20"/>
-      <c r="K12" s="20"/>
-      <c r="L12" s="20"/>
-    </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="J12" s="27"/>
+      <c r="K12" s="27"/>
+      <c r="L12" s="27"/>
+    </row>
+    <row r="13" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B13" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="12">
+      <c r="C13" s="21">
         <f>SUM(C9+C11)+C9</f>
         <v>7137.3067969999993</v>
       </c>
-      <c r="D13" s="16">
+      <c r="D13" s="23">
         <f>SUM(D11:E11)+2*MAX(D9:E9)</f>
         <v>5049.7931584999997</v>
       </c>
-      <c r="E13" s="17"/>
-      <c r="F13" s="16">
+      <c r="E13" s="24"/>
+      <c r="F13" s="23">
         <f>SUM(F11:H11)+2*MAX(F9:H9)</f>
         <v>4614.4124000000002</v>
       </c>
-      <c r="G13" s="18"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="19">
+      <c r="G13" s="25"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="26">
         <f>SUM(I11:L11)+2*MAX(I9:L9)</f>
         <v>4495.2935995000007</v>
       </c>
-      <c r="J13" s="20"/>
-      <c r="K13" s="20"/>
-      <c r="L13" s="20"/>
-    </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C14" s="21"/>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
-    </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="J13" s="27"/>
+      <c r="K13" s="27"/>
+      <c r="L13" s="27"/>
+    </row>
+    <row r="14" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
+    </row>
+    <row r="16" spans="2:17" x14ac:dyDescent="0.25">
       <c r="I16" s="2"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C17" s="21"/>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="21"/>
-      <c r="G17" s="21"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C18" s="21"/>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="21"/>
-      <c r="G18" s="21"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21" s="14" t="s">
@@ -1856,7 +1903,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:R18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
       <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
